--- a/PCAcombined_predicted_factors_matrix_7.xlsx
+++ b/PCAcombined_predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,31 +440,13 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0.1499896814630823</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1915657394248407</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0865038708099006</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.00174972815412322</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.06933696843272877</v>
+        <v>0.1915900982276767</v>
       </c>
     </row>
     <row r="3">
@@ -472,16 +454,7 @@
         <v>0.3887137965639995</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3276748751129096</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2492360105529234</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.186980474556812</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1449841457754592</v>
+        <v>0.3277165410585025</v>
       </c>
     </row>
     <row r="4">
@@ -489,16 +462,7 @@
         <v>1.027871507077309</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.7108939694535172</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.3578405519466712</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.2035068732530438</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.1243929615095684</v>
+        <v>-0.7109843641456476</v>
       </c>
     </row>
     <row r="5">
@@ -506,16 +470,7 @@
         <v>0.5929266886143696</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3870653002582199</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.230642355435138</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1226157805332456</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.05707224251946656</v>
+        <v>0.3871145180743089</v>
       </c>
     </row>
     <row r="6">
@@ -523,16 +478,7 @@
         <v>-0.4758680726044711</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2195336117338623</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.006858072486037862</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01706480537869643</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.01508335243288451</v>
+        <v>-0.2195615268296398</v>
       </c>
     </row>
     <row r="7">
@@ -540,16 +486,7 @@
         <v>0.145784743905366</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1162789198300293</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.03496704442801425</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.005733698211068808</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.004174289599494981</v>
+        <v>0.1162937054346487</v>
       </c>
     </row>
     <row r="8">
@@ -557,16 +494,7 @@
         <v>0.03359306617489989</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0001112395026084452</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05259961789777392</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.03372873381032106</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.01620010799438464</v>
+        <v>0.0001112536474189544</v>
       </c>
     </row>
   </sheetData>

--- a/PCAcombined_predicted_factors_matrix_7.xlsx
+++ b/PCAcombined_predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,12 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +454,12 @@
       <c r="B2" t="n">
         <v>0.1915900982276767</v>
       </c>
+      <c r="C2" t="n">
+        <v>0.1756681895839353</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1420799994246506</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +468,12 @@
       <c r="B3" t="n">
         <v>0.3277165410585025</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.2695100129257417</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2193585793026182</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +482,12 @@
       <c r="B4" t="n">
         <v>-0.7109843641456476</v>
       </c>
+      <c r="C4" t="n">
+        <v>-0.4948753006098619</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.3424326605473821</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +496,12 @@
       <c r="B5" t="n">
         <v>0.3871145180743089</v>
       </c>
+      <c r="C5" t="n">
+        <v>0.2689018265945972</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.188684898877221</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +510,12 @@
       <c r="B6" t="n">
         <v>-0.2195615268296398</v>
       </c>
+      <c r="C6" t="n">
+        <v>-0.1305923814639007</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.08591064592163024</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +524,12 @@
       <c r="B7" t="n">
         <v>0.1162937054346487</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.08556239111177286</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05972090553946014</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -495,6 +537,12 @@
       </c>
       <c r="B8" t="n">
         <v>0.0001112536474189544</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.00411933963015612</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.004939568154854256</v>
       </c>
     </row>
   </sheetData>

--- a/PCAcombined_predicted_factors_matrix_7.xlsx
+++ b/PCAcombined_predicted_factors_matrix_7.xlsx
@@ -1,37 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thesis\04. Models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5633F84E-B6D0-4E50-8537-65981ABA8931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-49890" yWindow="-3675" windowWidth="29385" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +52,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,129 +376,1158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AV8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AV1" sqref="AV1:AV1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.1499896814630823</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.14998968146308231</v>
+      </c>
+      <c r="B2">
         <v>0.1915900982276767</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.1756681895839353</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1420799994246506</v>
+      <c r="C2">
+        <v>0.1767122397628032</v>
+      </c>
+      <c r="D2">
+        <v>0.14542343252841611</v>
+      </c>
+      <c r="E2">
+        <v>0.1078894789862625</v>
+      </c>
+      <c r="F2">
+        <v>6.8386743048356652E-2</v>
+      </c>
+      <c r="G2">
+        <v>2.9102571643200979E-2</v>
+      </c>
+      <c r="H2">
+        <v>-8.7960336313575149E-3</v>
+      </c>
+      <c r="I2">
+        <v>-4.4738533187005297E-2</v>
+      </c>
+      <c r="J2">
+        <v>-7.8517496788411162E-2</v>
+      </c>
+      <c r="K2">
+        <v>-0.1101396859258587</v>
+      </c>
+      <c r="L2">
+        <v>-0.13972878021537191</v>
+      </c>
+      <c r="M2">
+        <v>-0.16746337051236879</v>
+      </c>
+      <c r="N2">
+        <v>-0.19353912076733859</v>
+      </c>
+      <c r="O2">
+        <v>-0.21814705733665199</v>
+      </c>
+      <c r="P2">
+        <v>-0.24146226126340711</v>
+      </c>
+      <c r="Q2">
+        <v>-0.26363901805028039</v>
+      </c>
+      <c r="R2">
+        <v>-0.2848097896521064</v>
+      </c>
+      <c r="S2">
+        <v>-0.30508630023677458</v>
+      </c>
+      <c r="T2">
+        <v>-0.32456166211884407</v>
+      </c>
+      <c r="U2">
+        <v>-0.34331289175950969</v>
+      </c>
+      <c r="V2">
+        <v>-0.36140344146578668</v>
+      </c>
+      <c r="W2">
+        <v>-0.37888554751013781</v>
+      </c>
+      <c r="X2">
+        <v>-0.39580230334335431</v>
+      </c>
+      <c r="Y2">
+        <v>-0.41218943060834878</v>
+      </c>
+      <c r="Z2">
+        <v>-0.42807675655073779</v>
+      </c>
+      <c r="AA2">
+        <v>-0.4434894246969977</v>
+      </c>
+      <c r="AB2">
+        <v>-0.45844887325627781</v>
+      </c>
+      <c r="AC2">
+        <v>-0.47297361707276869</v>
+      </c>
+      <c r="AD2">
+        <v>-0.48707986694735222</v>
+      </c>
+      <c r="AE2">
+        <v>-0.50078201651270327</v>
+      </c>
+      <c r="AF2">
+        <v>-0.51409302263244361</v>
+      </c>
+      <c r="AG2">
+        <v>-0.5270247010979574</v>
+      </c>
+      <c r="AH2">
+        <v>-0.53958795552836858</v>
+      </c>
+      <c r="AI2">
+        <v>-0.5517929539790688</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.56364926486964295</v>
+      </c>
+      <c r="AK2">
+        <v>-0.57516596143427334</v>
+      </c>
+      <c r="AL2">
+        <v>-0.58635170192953168</v>
+      </c>
+      <c r="AM2">
+        <v>-0.59721479124771693</v>
+      </c>
+      <c r="AN2">
+        <v>-0.60776322831870222</v>
+      </c>
+      <c r="AO2">
+        <v>-0.61800474268377759</v>
+      </c>
+      <c r="AP2">
+        <v>-0.62794682284133063</v>
+      </c>
+      <c r="AQ2">
+        <v>-0.63759673835393915</v>
+      </c>
+      <c r="AR2">
+        <v>-0.64696155723394189</v>
+      </c>
+      <c r="AS2">
+        <v>-0.65604815976031716</v>
+      </c>
+      <c r="AT2">
+        <v>-0.66486324960047161</v>
+      </c>
+      <c r="AU2">
+        <v>-0.67341336289706355</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.3887137965639995</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.3277165410585025</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2695100129257417</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.2193585793026182</v>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.38871379656399951</v>
+      </c>
+      <c r="B3">
+        <v>0.32771654105850251</v>
+      </c>
+      <c r="C3">
+        <v>0.2693252873712475</v>
+      </c>
+      <c r="D3">
+        <v>0.2187685330713374</v>
+      </c>
+      <c r="E3">
+        <v>0.17769956647634061</v>
+      </c>
+      <c r="F3">
+        <v>0.145145684450769</v>
+      </c>
+      <c r="G3">
+        <v>0.1197749105372229</v>
+      </c>
+      <c r="H3">
+        <v>0.10033320451692231</v>
+      </c>
+      <c r="I3">
+        <v>8.5719317543074422E-2</v>
+      </c>
+      <c r="J3">
+        <v>7.4990621504399488E-2</v>
+      </c>
+      <c r="K3">
+        <v>6.7354419922548786E-2</v>
+      </c>
+      <c r="L3">
+        <v>6.2154383234426618E-2</v>
+      </c>
+      <c r="M3">
+        <v>5.8854606206236303E-2</v>
+      </c>
+      <c r="N3">
+        <v>5.7022849591886061E-2</v>
+      </c>
+      <c r="O3">
+        <v>5.6314195854890968E-2</v>
+      </c>
+      <c r="P3">
+        <v>5.6455959085309419E-2</v>
+      </c>
+      <c r="Q3">
+        <v>5.7234310156033003E-2</v>
+      </c>
+      <c r="R3">
+        <v>5.8482782312841902E-2</v>
+      </c>
+      <c r="S3">
+        <v>6.0072624514680463E-2</v>
+      </c>
+      <c r="T3">
+        <v>6.190485475966595E-2</v>
+      </c>
+      <c r="U3">
+        <v>6.3903810435989528E-2</v>
+      </c>
+      <c r="V3">
+        <v>6.601197662722233E-2</v>
+      </c>
+      <c r="W3">
+        <v>6.8185880452075062E-2</v>
+      </c>
+      <c r="X3">
+        <v>7.0392858989146073E-2</v>
+      </c>
+      <c r="Y3">
+        <v>7.2608533069377729E-2</v>
+      </c>
+      <c r="Z3">
+        <v>7.4814844943411271E-2</v>
+      </c>
+      <c r="AA3">
+        <v>7.6998542160842162E-2</v>
+      </c>
+      <c r="AB3">
+        <v>7.9150011757280148E-2</v>
+      </c>
+      <c r="AC3">
+        <v>8.1262387599171593E-2</v>
+      </c>
+      <c r="AD3">
+        <v>8.3330869482296954E-2</v>
+      </c>
+      <c r="AE3">
+        <v>8.5352205543538645E-2</v>
+      </c>
+      <c r="AF3">
+        <v>8.7324300057405643E-2</v>
+      </c>
+      <c r="AG3">
+        <v>8.9245917109620529E-2</v>
+      </c>
+      <c r="AH3">
+        <v>9.1116457318743752E-2</v>
+      </c>
+      <c r="AI3">
+        <v>9.2935790030044041E-2</v>
+      </c>
+      <c r="AJ3">
+        <v>9.4704127508659586E-2</v>
+      </c>
+      <c r="AK3">
+        <v>9.6421930844082529E-2</v>
+      </c>
+      <c r="AL3">
+        <v>9.8089839737395212E-2</v>
+      </c>
+      <c r="AM3">
+        <v>9.9708620232960357E-2</v>
+      </c>
+      <c r="AN3">
+        <v>0.10127912590311459</v>
+      </c>
+      <c r="AO3">
+        <v>0.10280226909770861</v>
+      </c>
+      <c r="AP3">
+        <v>0.1042789997089013</v>
+      </c>
+      <c r="AQ3">
+        <v>0.1057102895369738</v>
+      </c>
+      <c r="AR3">
+        <v>0.1070971208229866</v>
+      </c>
+      <c r="AS3">
+        <v>0.1084404778759535</v>
+      </c>
+      <c r="AT3">
+        <v>0.1097413409941959</v>
+      </c>
+      <c r="AU3">
+        <v>0.111000682084652</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>1.027871507077309</v>
       </c>
-      <c r="B4" t="n">
-        <v>-0.7109843641456476</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.4948753006098619</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.3424326605473821</v>
+      <c r="B4">
+        <v>-0.71098436414564758</v>
+      </c>
+      <c r="C4">
+        <v>-0.49466738673337168</v>
+      </c>
+      <c r="D4">
+        <v>-0.34185508981827673</v>
+      </c>
+      <c r="E4">
+        <v>-0.23556470685449579</v>
+      </c>
+      <c r="F4">
+        <v>-0.16190745672117729</v>
+      </c>
+      <c r="G4">
+        <v>-0.11088938455933831</v>
+      </c>
+      <c r="H4">
+        <v>-7.5543255803445508E-2</v>
+      </c>
+      <c r="I4">
+        <v>-5.1052106304107517E-2</v>
+      </c>
+      <c r="J4">
+        <v>-3.4089347885023047E-2</v>
+      </c>
+      <c r="K4">
+        <v>-2.235470325043078E-2</v>
+      </c>
+      <c r="L4">
+        <v>-1.425444202920814E-2</v>
+      </c>
+      <c r="M4">
+        <v>-8.6821957733666227E-3</v>
+      </c>
+      <c r="N4">
+        <v>-4.8686467232147163E-3</v>
+      </c>
+      <c r="O4">
+        <v>-2.278177009254458E-3</v>
+      </c>
+      <c r="P4">
+        <v>-5.3757329962347573E-4</v>
+      </c>
+      <c r="Q4">
+        <v>6.1331476348597258E-4</v>
+      </c>
+      <c r="R4">
+        <v>1.3558206379548569E-3</v>
+      </c>
+      <c r="S4">
+        <v>1.8162863929243611E-3</v>
+      </c>
+      <c r="T4">
+        <v>2.0826693352511659E-3</v>
+      </c>
+      <c r="U4">
+        <v>2.2161326967690149E-3</v>
+      </c>
+      <c r="V4">
+        <v>2.2591425831231379E-3</v>
+      </c>
+      <c r="W4">
+        <v>2.2411268656003448E-3</v>
+      </c>
+      <c r="X4">
+        <v>2.182430390822456E-3</v>
+      </c>
+      <c r="Y4">
+        <v>2.0970786182571951E-3</v>
+      </c>
+      <c r="Z4">
+        <v>1.9947074711420599E-3</v>
+      </c>
+      <c r="AA4">
+        <v>1.88190970714684E-3</v>
+      </c>
+      <c r="AB4">
+        <v>1.7631730790433689E-3</v>
+      </c>
+      <c r="AC4">
+        <v>1.64153307176581E-3</v>
+      </c>
+      <c r="AD4">
+        <v>1.519026243247982E-3</v>
+      </c>
+      <c r="AE4">
+        <v>1.3970044276833259E-3</v>
+      </c>
+      <c r="AF4">
+        <v>1.276351987064716E-3</v>
+      </c>
+      <c r="AG4">
+        <v>1.1576356201019259E-3</v>
+      </c>
+      <c r="AH4">
+        <v>1.041207347551324E-3</v>
+      </c>
+      <c r="AI4">
+        <v>9.2727506190408925E-4</v>
+      </c>
+      <c r="AJ4">
+        <v>8.1595066517180183E-4</v>
+      </c>
+      <c r="AK4">
+        <v>7.0728276521402392E-4</v>
+      </c>
+      <c r="AL4">
+        <v>6.0127876752653659E-4</v>
+      </c>
+      <c r="AM4">
+        <v>4.9791971090344233E-4</v>
+      </c>
+      <c r="AN4">
+        <v>3.9717015870485857E-4</v>
+      </c>
+      <c r="AO4">
+        <v>2.9898473690288498E-4</v>
+      </c>
+      <c r="AP4">
+        <v>2.0331241039013771E-4</v>
+      </c>
+      <c r="AQ4">
+        <v>1.100992433887456E-4</v>
+      </c>
+      <c r="AR4">
+        <v>1.92901513542728E-5</v>
+      </c>
+      <c r="AS4">
+        <v>-6.9170012098473824E-5</v>
+      </c>
+      <c r="AT4">
+        <v>-1.5533580208115531E-4</v>
+      </c>
+      <c r="AU4">
+        <v>-2.3926080855629769E-4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.5929266886143696</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.3871145180743089</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2689018265945972</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.188684898877221</v>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.59292668861436959</v>
+      </c>
+      <c r="B5">
+        <v>0.38711451807430891</v>
+      </c>
+      <c r="C5">
+        <v>0.26884759919242029</v>
+      </c>
+      <c r="D5">
+        <v>0.18853779878392379</v>
+      </c>
+      <c r="E5">
+        <v>0.13212484285009651</v>
+      </c>
+      <c r="F5">
+        <v>9.2039879535822572E-2</v>
+      </c>
+      <c r="G5">
+        <v>6.351637360050473E-2</v>
+      </c>
+      <c r="H5">
+        <v>4.3265062573356897E-2</v>
+      </c>
+      <c r="I5">
+        <v>2.892880905324352E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.880155517801365E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.165067425320424E-2</v>
+      </c>
+      <c r="L5">
+        <v>6.5909651645921271E-3</v>
+      </c>
+      <c r="M5">
+        <v>2.9913319691456542E-3</v>
+      </c>
+      <c r="N5">
+        <v>4.0513914346960479E-4</v>
+      </c>
+      <c r="O5">
+        <v>-1.4814643380120279E-3</v>
+      </c>
+      <c r="P5">
+        <v>-2.88751895383264E-3</v>
+      </c>
+      <c r="Q5">
+        <v>-3.9648809034871146E-3</v>
+      </c>
+      <c r="R5">
+        <v>-4.8181342632945719E-3</v>
+      </c>
+      <c r="S5">
+        <v>-5.5188235538186298E-3</v>
+      </c>
+      <c r="T5">
+        <v>-6.1155504764728481E-3</v>
+      </c>
+      <c r="U5">
+        <v>-6.6410875554589873E-3</v>
+      </c>
+      <c r="V5">
+        <v>-7.1173578963524683E-3</v>
+      </c>
+      <c r="W5">
+        <v>-7.5588996700756183E-3</v>
+      </c>
+      <c r="X5">
+        <v>-7.9752617082191161E-3</v>
+      </c>
+      <c r="Y5">
+        <v>-8.3726497244292937E-3</v>
+      </c>
+      <c r="Z5">
+        <v>-8.7550502491801196E-3</v>
+      </c>
+      <c r="AA5">
+        <v>-9.1249926491786173E-3</v>
+      </c>
+      <c r="AB5">
+        <v>-9.4840618217397459E-3</v>
+      </c>
+      <c r="AC5">
+        <v>-9.8332401676140581E-3</v>
+      </c>
+      <c r="AD5">
+        <v>-1.0173133418324039E-2</v>
+      </c>
+      <c r="AE5">
+        <v>-1.050411800314773E-2</v>
+      </c>
+      <c r="AF5">
+        <v>-1.0826435830009151E-2</v>
+      </c>
+      <c r="AG5">
+        <v>-1.114025413888853E-2</v>
+      </c>
+      <c r="AH5">
+        <v>-1.1445702400997239E-2</v>
+      </c>
+      <c r="AI5">
+        <v>-1.174289432376628E-2</v>
+      </c>
+      <c r="AJ5">
+        <v>-1.2031940343187379E-2</v>
+      </c>
+      <c r="AK5">
+        <v>-1.231295416275449E-2</v>
+      </c>
+      <c r="AL5">
+        <v>-1.2586055666676629E-2</v>
+      </c>
+      <c r="AM5">
+        <v>-1.285137170883179E-2</v>
+      </c>
+      <c r="AN5">
+        <v>-1.310903572943114E-2</v>
+      </c>
+      <c r="AO5">
+        <v>-1.335918678947263E-2</v>
+      </c>
+      <c r="AP5">
+        <v>-1.360196837766928E-2</v>
+      </c>
+      <c r="AQ5">
+        <v>-1.383752719361896E-2</v>
+      </c>
+      <c r="AR5">
+        <v>-1.406601201602186E-2</v>
+      </c>
+      <c r="AS5">
+        <v>-1.428757270660834E-2</v>
+      </c>
+      <c r="AT5">
+        <v>-1.450235936588026E-2</v>
+      </c>
+      <c r="AU5">
+        <v>-1.471052163751874E-2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>-0.4758680726044711</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.2195615268296398</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.1305923814639007</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.08591064592163024</v>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>-0.47586807260447112</v>
+      </c>
+      <c r="B6">
+        <v>-0.21956152682963981</v>
+      </c>
+      <c r="C6">
+        <v>-0.13056844165091949</v>
+      </c>
+      <c r="D6">
+        <v>-8.5841206660291838E-2</v>
+      </c>
+      <c r="E6">
+        <v>-5.8768570292082448E-2</v>
+      </c>
+      <c r="F6">
+        <v>-4.0799096860785249E-2</v>
+      </c>
+      <c r="G6">
+        <v>-2.8372934126869521E-2</v>
+      </c>
+      <c r="H6">
+        <v>-1.962365966727601E-2</v>
+      </c>
+      <c r="I6">
+        <v>-1.341354463150001E-2</v>
+      </c>
+      <c r="J6">
+        <v>-8.9908675518996506E-3</v>
+      </c>
+      <c r="K6">
+        <v>-5.8386523505729922E-3</v>
+      </c>
+      <c r="L6">
+        <v>-3.5941096402535792E-3</v>
+      </c>
+      <c r="M6">
+        <v>-1.9998969682112578E-3</v>
+      </c>
+      <c r="N6">
+        <v>-8.7235112838945222E-4</v>
+      </c>
+      <c r="O6">
+        <v>-7.9912804982699547E-5</v>
+      </c>
+      <c r="P6">
+        <v>4.7186767528918433E-4</v>
+      </c>
+      <c r="Q6">
+        <v>8.5089202073094236E-4</v>
+      </c>
+      <c r="R6">
+        <v>1.106015292335985E-3</v>
+      </c>
+      <c r="S6">
+        <v>1.272402142135017E-3</v>
+      </c>
+      <c r="T6">
+        <v>1.3753649911502569E-3</v>
+      </c>
+      <c r="U6">
+        <v>1.433121012220229E-3</v>
+      </c>
+      <c r="V6">
+        <v>1.458775697620891E-3</v>
+      </c>
+      <c r="W6">
+        <v>1.461751495453916E-3</v>
+      </c>
+      <c r="X6">
+        <v>1.4488174340712039E-3</v>
+      </c>
+      <c r="Y6">
+        <v>1.424831425917635E-3</v>
+      </c>
+      <c r="Z6">
+        <v>1.3932754768924041E-3</v>
+      </c>
+      <c r="AA6">
+        <v>1.35664153778687E-3</v>
+      </c>
+      <c r="AB6">
+        <v>1.316709605333536E-3</v>
+      </c>
+      <c r="AC6">
+        <v>1.274748084166861E-3</v>
+      </c>
+      <c r="AD6">
+        <v>1.231658068656788E-3</v>
+      </c>
+      <c r="AE6">
+        <v>1.1880771799832269E-3</v>
+      </c>
+      <c r="AF6">
+        <v>1.144454246082738E-3</v>
+      </c>
+      <c r="AG6">
+        <v>1.101102972232071E-3</v>
+      </c>
+      <c r="AH6">
+        <v>1.058240482009132E-3</v>
+      </c>
+      <c r="AI6">
+        <v>1.016014969961238E-3</v>
+      </c>
+      <c r="AJ6">
+        <v>9.7452552394447609E-4</v>
+      </c>
+      <c r="AK6">
+        <v>9.338363206286835E-4</v>
+      </c>
+      <c r="AL6">
+        <v>8.9398678090518073E-4</v>
+      </c>
+      <c r="AM6">
+        <v>8.5499882701610993E-4</v>
+      </c>
+      <c r="AN6">
+        <v>8.1688206240950237E-4</v>
+      </c>
+      <c r="AO6">
+        <v>7.7963746419203346E-4</v>
+      </c>
+      <c r="AP6">
+        <v>7.4326001160557927E-4</v>
+      </c>
+      <c r="AQ6">
+        <v>7.0774055421971385E-4</v>
+      </c>
+      <c r="AR6">
+        <v>6.7306713743886504E-4</v>
+      </c>
+      <c r="AS6">
+        <v>6.392259410929592E-4</v>
+      </c>
+      <c r="AT6">
+        <v>6.0620194250947433E-4</v>
+      </c>
+      <c r="AU6">
+        <v>5.7397938362326929E-4</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>0.145784743905366</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.1162937054346487</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.08556239111177286</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.05972090553946014</v>
+      <c r="C7">
+        <v>8.5587899721035976E-2</v>
+      </c>
+      <c r="D7">
+        <v>5.9785730174701693E-2</v>
+      </c>
+      <c r="E7">
+        <v>4.1131262795033138E-2</v>
+      </c>
+      <c r="F7">
+        <v>2.8158416683281031E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.923014206207754E-2</v>
+      </c>
+      <c r="H7">
+        <v>1.3105512535151831E-2</v>
+      </c>
+      <c r="I7">
+        <v>8.9154999219281782E-3</v>
+      </c>
+      <c r="J7">
+        <v>6.0613042170046434E-3</v>
+      </c>
+      <c r="K7">
+        <v>4.130241834282098E-3</v>
+      </c>
+      <c r="L7">
+        <v>2.836969513679983E-3</v>
+      </c>
+      <c r="M7">
+        <v>1.98369396739688E-3</v>
+      </c>
+      <c r="N7">
+        <v>1.433166546455958E-3</v>
+      </c>
+      <c r="O7">
+        <v>1.0901780623548451E-3</v>
+      </c>
+      <c r="P7">
+        <v>8.8876947497147564E-4</v>
+      </c>
+      <c r="Q7">
+        <v>7.8334245627306471E-4</v>
+      </c>
+      <c r="R7">
+        <v>7.4246152986814278E-4</v>
+      </c>
+      <c r="S7">
+        <v>7.4452782847956645E-4</v>
+      </c>
+      <c r="T7">
+        <v>7.7475980343371395E-4</v>
+      </c>
+      <c r="U7">
+        <v>8.230883155672167E-4</v>
+      </c>
+      <c r="V7">
+        <v>8.826916830236923E-4</v>
+      </c>
+      <c r="W7">
+        <v>9.489783298074955E-4</v>
+      </c>
+      <c r="X7">
+        <v>1.0188820813291589E-3</v>
+      </c>
+      <c r="Y7">
+        <v>1.09037544844376E-3</v>
+      </c>
+      <c r="Z7">
+        <v>1.1621345706370109E-3</v>
+      </c>
+      <c r="AA7">
+        <v>1.233309409075361E-3</v>
+      </c>
+      <c r="AB7">
+        <v>1.303366778105807E-3</v>
+      </c>
+      <c r="AC7">
+        <v>1.371983628251228E-3</v>
+      </c>
+      <c r="AD7">
+        <v>1.4389748782262591E-3</v>
+      </c>
+      <c r="AE7">
+        <v>1.5042449087142159E-3</v>
+      </c>
+      <c r="AF7">
+        <v>1.5677551915225501E-3</v>
+      </c>
+      <c r="AG7">
+        <v>1.6295028680700209E-3</v>
+      </c>
+      <c r="AH7">
+        <v>1.689506716599699E-3</v>
+      </c>
+      <c r="AI7">
+        <v>1.747798073405239E-3</v>
+      </c>
+      <c r="AJ7">
+        <v>1.804415050710927E-3</v>
+      </c>
+      <c r="AK7">
+        <v>1.8593989287903831E-3</v>
+      </c>
+      <c r="AL7">
+        <v>1.9127919666814259E-3</v>
+      </c>
+      <c r="AM7">
+        <v>1.9646361261794129E-3</v>
+      </c>
+      <c r="AN7">
+        <v>2.0149723739461369E-3</v>
+      </c>
+      <c r="AO7">
+        <v>2.063840341475828E-3</v>
+      </c>
+      <c r="AP7">
+        <v>2.1112781999108382E-3</v>
+      </c>
+      <c r="AQ7">
+        <v>2.1573226581658471E-3</v>
+      </c>
+      <c r="AR7">
+        <v>2.2020090268170412E-3</v>
+      </c>
+      <c r="AS7">
+        <v>2.245371312549069E-3</v>
+      </c>
+      <c r="AT7">
+        <v>2.2874423222649649E-3</v>
+      </c>
+      <c r="AU7">
+        <v>2.328253765175997E-3</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.03359306617489989</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.0001112536474189544</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.00411933963015612</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.004939568154854256</v>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3.3593066174899891E-2</v>
+      </c>
+      <c r="B8">
+        <v>1.112536474189544E-4</v>
+      </c>
+      <c r="C8">
+        <v>-4.0792660248279251E-3</v>
+      </c>
+      <c r="D8">
+        <v>-4.8201871134177926E-3</v>
+      </c>
+      <c r="E8">
+        <v>-4.1801346872918296E-3</v>
+      </c>
+      <c r="F8">
+        <v>-3.2591170333280519E-3</v>
+      </c>
+      <c r="G8">
+        <v>-2.4446907000165918E-3</v>
+      </c>
+      <c r="H8">
+        <v>-1.822211939031341E-3</v>
+      </c>
+      <c r="I8">
+        <v>-1.3759411505583289E-3</v>
+      </c>
+      <c r="J8">
+        <v>-1.0668944385281509E-3</v>
+      </c>
+      <c r="K8">
+        <v>-8.5825425749447379E-4</v>
+      </c>
+      <c r="L8">
+        <v>-7.2135480801519165E-4</v>
+      </c>
+      <c r="M8">
+        <v>-6.3540647600274984E-4</v>
+      </c>
+      <c r="N8">
+        <v>-5.857262626997109E-4</v>
+      </c>
+      <c r="O8">
+        <v>-5.6200025631329004E-4</v>
+      </c>
+      <c r="P8">
+        <v>-5.5694438574323496E-4</v>
+      </c>
+      <c r="Q8">
+        <v>-5.6535982665162647E-4</v>
+      </c>
+      <c r="R8">
+        <v>-5.8349058563980421E-4</v>
+      </c>
+      <c r="S8">
+        <v>-6.0859135752555312E-4</v>
+      </c>
+      <c r="T8">
+        <v>-6.3863574899840922E-4</v>
+      </c>
+      <c r="U8">
+        <v>-6.7211679113192608E-4</v>
+      </c>
+      <c r="V8">
+        <v>-7.0790816821350491E-4</v>
+      </c>
+      <c r="W8">
+        <v>-7.4516583477341315E-4</v>
+      </c>
+      <c r="X8">
+        <v>-7.8325697957975561E-4</v>
+      </c>
+      <c r="Y8">
+        <v>-8.2170790498301254E-4</v>
+      </c>
+      <c r="Z8">
+        <v>-8.601652817640693E-4</v>
+      </c>
+      <c r="AA8">
+        <v>-8.9836705945892472E-4</v>
+      </c>
+      <c r="AB8">
+        <v>-9.3612047163075152E-4</v>
+      </c>
+      <c r="AC8">
+        <v>-9.7328532909751839E-4</v>
+      </c>
+      <c r="AD8">
+        <v>-1.009761296297412E-3</v>
+      </c>
+      <c r="AE8">
+        <v>-1.045478190105304E-3</v>
+      </c>
+      <c r="AF8">
+        <v>-1.080388582882782E-3</v>
+      </c>
+      <c r="AG8">
+        <v>-1.1144621667327579E-3</v>
+      </c>
+      <c r="AH8">
+        <v>-1.147681465286934E-3</v>
+      </c>
+      <c r="AI8">
+        <v>-1.18003857638118E-3</v>
+      </c>
+      <c r="AJ8">
+        <v>-1.21153270264685E-3</v>
+      </c>
+      <c r="AK8">
+        <v>-1.242168283462672E-3</v>
+      </c>
+      <c r="AL8">
+        <v>-1.271953585038946E-3</v>
+      </c>
+      <c r="AM8">
+        <v>-1.3008996388322669E-3</v>
+      </c>
+      <c r="AN8">
+        <v>-1.3290194442390291E-3</v>
+      </c>
+      <c r="AO8">
+        <v>-1.3563273713644551E-3</v>
+      </c>
+      <c r="AP8">
+        <v>-1.382838714932259E-3</v>
+      </c>
+      <c r="AQ8">
+        <v>-1.4085693621195799E-3</v>
+      </c>
+      <c r="AR8">
+        <v>-1.4335355460894409E-3</v>
+      </c>
+      <c r="AS8">
+        <v>-1.4577536638386479E-3</v>
+      </c>
+      <c r="AT8">
+        <v>-1.4812401422359641E-3</v>
+      </c>
+      <c r="AU8">
+        <v>-1.5040113400715969E-3</v>
       </c>
     </row>
   </sheetData>
